--- a/HRMS/tblEmployeedatabelow62.xlsx
+++ b/HRMS/tblEmployeedatabelow62.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$113</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="251">
   <si>
     <t>Table Name -  tblEmployeedatabelow62</t>
   </si>
@@ -449,13 +452,331 @@
   </si>
   <si>
     <t>Pay_Scale</t>
+  </si>
+  <si>
+    <t>Primary id for auto increatment.</t>
+  </si>
+  <si>
+    <t>Take SchemeName as String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Employee_Code  (MstEmployeeRegistration) in Numaric </t>
+  </si>
+  <si>
+    <t>Take First_Name as String.</t>
+  </si>
+  <si>
+    <t>Take Middle_Name as String.</t>
+  </si>
+  <si>
+    <t>Take Last_Name as String.</t>
+  </si>
+  <si>
+    <t>Take Father_name as String.</t>
+  </si>
+  <si>
+    <t>Take input as date</t>
+  </si>
+  <si>
+    <t>Take age as Int.</t>
+  </si>
+  <si>
+    <t>Take Critical_Illness_Rfc_ID as Int.</t>
+  </si>
+  <si>
+    <t>Take SamagraID as Int.</t>
+  </si>
+  <si>
+    <t>Take EmpRank as Int.</t>
+  </si>
+  <si>
+    <t>Take Sex as bit.</t>
+  </si>
+  <si>
+    <t>Take Height as String.</t>
+  </si>
+  <si>
+    <t>Take Handicap_code as String.</t>
+  </si>
+  <si>
+    <t>Take PRAN_code as String.</t>
+  </si>
+  <si>
+    <t>Take category_id as Int.</t>
+  </si>
+  <si>
+    <t>Take Handicap_Percentage as Int.</t>
+  </si>
+  <si>
+    <t>Take Mobile_Number as String.</t>
+  </si>
+  <si>
+    <t>Take EmpRollNo as Int.</t>
+  </si>
+  <si>
+    <t>Take Category_Name as String.</t>
+  </si>
+  <si>
+    <t>Take Handicap_type_id as Int.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Subcaste_ID  (MstSubCaste) in Numaric </t>
+  </si>
+  <si>
+    <t>Take Identification_Mark as String.</t>
+  </si>
+  <si>
+    <t>Take Subcaste as String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Blood_Group_ID  (MstBlood) in Numaric </t>
+  </si>
+  <si>
+    <t>Take BG_Name_E as String.</t>
+  </si>
+  <si>
+    <t>For Is_handicapped Check.</t>
+  </si>
+  <si>
+    <t>Take Handicapped_Type as String.</t>
+  </si>
+  <si>
+    <t>Take PAN_No as String.</t>
+  </si>
+  <si>
+    <t>Take AadharNo as String.</t>
+  </si>
+  <si>
+    <t>Take Treasury_Code as String.</t>
+  </si>
+  <si>
+    <t>Take  Address_email as String.</t>
+  </si>
+  <si>
+    <t>For Is_Certified Check.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Division_Id_Permanent  (MstDivision) in Numaric </t>
+  </si>
+  <si>
+    <t>Take Division_Name_Permanent as String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get district_id_Permanent  (MstDistricts) in Numaric </t>
+  </si>
+  <si>
+    <t>Take District_Name_Permanent as String.</t>
+  </si>
+  <si>
+    <t>Take Address_Permanent as String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Division_Id_Present  (MstDivision) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get district_id_Present  (MstDistricts) in Numaric </t>
+  </si>
+  <si>
+    <t>Take District_Name_Present as String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Block_ID_Present  (MstBlock) in Numaric </t>
+  </si>
+  <si>
+    <t>Take Block_Name_Present as String.</t>
+  </si>
+  <si>
+    <t>Take First_OIS_Type as String.</t>
+  </si>
+  <si>
+    <t>Take PinCode_Present as Int.</t>
+  </si>
+  <si>
+    <t>Take Address_Present as String.</t>
+  </si>
+  <si>
+    <t>For Is_Married Check.</t>
+  </si>
+  <si>
+    <t>Take Spouse_Name as String.</t>
+  </si>
+  <si>
+    <t>For Is_Spouse_Govt_Employee Check.</t>
+  </si>
+  <si>
+    <t>Take Spouse_Office_Address as String.</t>
+  </si>
+  <si>
+    <t>Take First_Office_Type_ID as Int.</t>
+  </si>
+  <si>
+    <t>Take First_OfficeOfficeTypeName as String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get First_Division_Id  (MstDivision) in Numaric </t>
+  </si>
+  <si>
+    <t>Take First_Division_Name as String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get First_Appointing_District_ID  (MstDistricts) in Numaric </t>
+  </si>
+  <si>
+    <t>Take First_District_Name as String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get First_Block_ID  (MstBlock) in Numaric </t>
+  </si>
+  <si>
+    <t>Take First_Block_Name as String.</t>
+  </si>
+  <si>
+    <t>Take FirstPaymentAuthority_OIS_ID as Int.</t>
+  </si>
+  <si>
+    <t>Take FirstPaymentAuthority_OIS_Name as String.</t>
+  </si>
+  <si>
+    <t>Take First_OIS_Code as String.</t>
+  </si>
+  <si>
+    <t>Take First_Appointing_Office_ID as Int.</t>
+  </si>
+  <si>
+    <t>Take First_Appointing_OIS_Name as String.</t>
+  </si>
+  <si>
+    <t>Take First_Office_of_Posting_Address as String.</t>
+  </si>
+  <si>
+    <t>Take First_Appointment_Order_No as String.</t>
+  </si>
+  <si>
+    <t>Take First_App_Department_Name as String.</t>
+  </si>
+  <si>
+    <t>Take First_Designation_Type as String.</t>
+  </si>
+  <si>
+    <t>Take First_DG_Class as String.</t>
+  </si>
+  <si>
+    <t>Take Present_DG_Type as String.</t>
+  </si>
+  <si>
+    <t>Take Present_DG_Class as String.</t>
+  </si>
+  <si>
+    <t>Take Bank_Account_No as String.</t>
+  </si>
+  <si>
+    <t>Take GPF_No as String.</t>
+  </si>
+  <si>
+    <t>Take Pay_Scale as String.</t>
+  </si>
+  <si>
+    <t>Take First_Appointment_Desig_id as Int.</t>
+  </si>
+  <si>
+    <t>Take First_Appointment_Subject_ID as Int.</t>
+  </si>
+  <si>
+    <t>Take First_Designation_Name as String.</t>
+  </si>
+  <si>
+    <t>Take teacher_subject_id as Int.</t>
+  </si>
+  <si>
+    <t>For Is_working_Other_Dept Check.</t>
+  </si>
+  <si>
+    <t>For First_Appointment_IsRegular Check.</t>
+  </si>
+  <si>
+    <t>Take Parent_Department_ID as Int.</t>
+  </si>
+  <si>
+    <t>Take Parent_Department_Name as String.</t>
+  </si>
+  <si>
+    <t>Take Present_Parent_Department_ID as Int.</t>
+  </si>
+  <si>
+    <t>Take Present_Office_Type_ID as Int.</t>
+  </si>
+  <si>
+    <t>Take Present_OIS_ID as Int.</t>
+  </si>
+  <si>
+    <t>Take Present_Parent_Department_Name as String.</t>
+  </si>
+  <si>
+    <t>Take First_Appointment_PayScale as String.</t>
+  </si>
+  <si>
+    <t>Take PresentPaymentAuthority_ID as Int.</t>
+  </si>
+  <si>
+    <t>Take Present_Designation_ID as Int.</t>
+  </si>
+  <si>
+    <t>Take Present_teacher_subject_id as Int.</t>
+  </si>
+  <si>
+    <t>Take Present_OfficeOfficeTypeName as String.</t>
+  </si>
+  <si>
+    <t>Take Present_OIS_Name as String.</t>
+  </si>
+  <si>
+    <t>Take Present_OIS_Type as String.</t>
+  </si>
+  <si>
+    <t>Take Present_OIS_Code as String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Present_Division_ID  (MstDivision) in Numaric </t>
+  </si>
+  <si>
+    <t>Take Present_Division_Name as String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Present_Appointing_District_ID  (MstDistricts) in Numaric </t>
+  </si>
+  <si>
+    <t>Take Present_District_Name as String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Present_Block_ID  (MstBlock) in Numaric </t>
+  </si>
+  <si>
+    <t>Take Present_Block_Name as String.</t>
+  </si>
+  <si>
+    <t>Take PresentPaymentAuthority_OIS_Name as String.</t>
+  </si>
+  <si>
+    <t>Take Present_posting_Order_No as String.</t>
+  </si>
+  <si>
+    <t>Take Present_DG_Name as String.</t>
+  </si>
+  <si>
+    <t>For Present_IsRegular Check.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Bank_ID  (MstBank) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get IFSC  (MstIFCSCode) in Numaric </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,13 +791,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -506,14 +839,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -523,6 +850,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="J97" sqref="J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,1807 +1179,2026 @@
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="62.140625" customWidth="1"/>
     <col min="10" max="10" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="8" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="D8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="8" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="D9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="8" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="8" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="D11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="9" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="D12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="9" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="9" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="D14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="8" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="9" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="D16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="8" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>13</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="D17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="8" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>14</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="D18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="8" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="D19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="8" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="D20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="8" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="D21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="8" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>18</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="4">
+        <v>18</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="8" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="D23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="9" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="D24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="9" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <v>21</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="D25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="8" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <v>22</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="D26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="9" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="4">
         <v>23</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="D27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="9" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28" s="4">
         <v>24</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="D28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="8" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29" s="4">
         <v>25</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="D29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="8" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="A30" s="4">
         <v>26</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="D30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="9" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="A31" s="4">
         <v>27</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="D31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="8" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+      <c r="A32" s="4">
         <v>28</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="D32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="8" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="A33" s="4">
         <v>29</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="D33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="8" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+      <c r="A34" s="4">
         <v>30</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="D34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="8" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+      <c r="A35" s="4">
         <v>31</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="D35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="8" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+      <c r="A36" s="4">
         <v>32</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="D36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="9" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+      <c r="A37" s="4">
         <v>33</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="D37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="9" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+      <c r="A38" s="4">
         <v>34</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="D38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="9" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+      <c r="A39" s="4">
         <v>35</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="D39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="8" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+      <c r="A40" s="4">
         <v>36</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="D40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="8" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
+      <c r="A41" s="4">
         <v>37</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="D41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="8" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
+      <c r="A42" s="4">
         <v>38</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="D42" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="8" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+      <c r="A43" s="4">
         <v>39</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="8" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
+      <c r="A44" s="4">
         <v>40</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
+      <c r="D44" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="8" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
+      <c r="A45" s="4">
         <v>41</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
+      <c r="D45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="8" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
+      <c r="A46" s="4">
         <v>42</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="8" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
+      <c r="A47" s="4">
         <v>43</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
+      <c r="D47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="8" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
+      <c r="A48" s="4">
         <v>44</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
+      <c r="D48" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="8" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+      <c r="A49" s="4">
         <v>45</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
+      <c r="D49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="8" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
+      <c r="A50" s="4">
         <v>46</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
+      <c r="D50" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="9" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
+      <c r="A51" s="4">
         <v>47</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="8" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
+      <c r="A52" s="4">
         <v>48</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="8" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
+      <c r="A53" s="4">
         <v>49</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="D53" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="8" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
+      <c r="A54" s="4">
         <v>50</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="8" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
+      <c r="A55" s="4">
         <v>51</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
+      <c r="D55" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="8" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
+      <c r="A56" s="4">
         <v>52</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
+      <c r="D56" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="8" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
+      <c r="A57" s="4">
         <v>53</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
+      <c r="D57" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="9" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
+      <c r="A58" s="4">
         <v>54</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
+      <c r="D58" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="8" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
+      <c r="A59" s="4">
         <v>55</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
+      <c r="D59" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="8" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
+      <c r="A60" s="4">
         <v>56</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
+      <c r="D60" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="8" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="6">
+      <c r="A61" s="4">
         <v>57</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
+      <c r="D61" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="8" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="6">
+      <c r="A62" s="4">
         <v>58</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
+      <c r="D62" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="8" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
+      <c r="A63" s="4">
         <v>59</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D63" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
+      <c r="D63" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="8" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="6">
+      <c r="A64" s="4">
         <v>60</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D64" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
+      <c r="D64" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="8" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="6">
+      <c r="A65" s="4">
         <v>61</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
+      <c r="D65" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="9" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
+      <c r="A66" s="4">
         <v>62</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D66" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
+      <c r="D66" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="8" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="6">
+      <c r="A67" s="4">
         <v>63</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D67" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
+      <c r="D67" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="8" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="6">
+      <c r="A68" s="4">
         <v>64</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D68" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
+      <c r="D68" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="9" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="6">
+      <c r="A69" s="4">
         <v>65</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
+      <c r="D69" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="8" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="6">
+      <c r="A70" s="4">
         <v>66</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D70" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
+      <c r="D70" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="8" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="6">
+      <c r="A71" s="4">
         <v>67</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D71" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
+      <c r="D71" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="5"/>
+      <c r="F71" s="8" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="6">
+      <c r="A72" s="4">
         <v>68</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
+      <c r="D72" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="5"/>
+      <c r="F72" s="9" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="6">
+      <c r="A73" s="4">
         <v>69</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D73" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
+      <c r="D73" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="F73" s="8" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="6">
+      <c r="A74" s="4">
         <v>70</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D74" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
+      <c r="D74" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="5"/>
+      <c r="F74" s="8" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="6">
+      <c r="A75" s="4">
         <v>71</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="9" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="6">
+      <c r="A76" s="4">
         <v>72</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D76" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
+      <c r="D76" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="8" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="6">
+      <c r="A77" s="4">
         <v>73</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="9" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="6">
+      <c r="A78" s="4">
         <v>74</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="9" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="6">
+      <c r="A79" s="4">
         <v>75</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D79" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
+      <c r="D79" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="5"/>
+      <c r="F79" s="8" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="6">
+      <c r="A80" s="4">
         <v>76</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D80" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
+      <c r="D80" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="5"/>
+      <c r="F80" s="8" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="6">
+      <c r="A81" s="4">
         <v>77</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D81" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
+      <c r="D81" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="5"/>
+      <c r="F81" s="9" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="6">
+      <c r="A82" s="4">
         <v>78</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
+      <c r="D82" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="5"/>
+      <c r="F82" s="8" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="6">
+      <c r="A83" s="4">
         <v>79</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
+      <c r="D83" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="5"/>
+      <c r="F83" s="9" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="6">
+      <c r="A84" s="4">
         <v>80</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
+      <c r="D84" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="5"/>
+      <c r="F84" s="8" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="6">
+      <c r="A85" s="4">
         <v>81</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D85" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
+      <c r="D85" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="5"/>
+      <c r="F85" s="8" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="6">
+      <c r="A86" s="4">
         <v>82</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
+      <c r="D86" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="5"/>
+      <c r="F86" s="8" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="6">
+      <c r="A87" s="4">
         <v>83</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D87" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
+      <c r="D87" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" s="5"/>
+      <c r="F87" s="8" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="6">
+      <c r="A88" s="4">
         <v>84</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
+      <c r="D88" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" s="5"/>
+      <c r="F88" s="8" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="6">
+      <c r="A89" s="4">
         <v>85</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D89" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
+      <c r="D89" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="5"/>
+      <c r="F89" s="8" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="6">
+      <c r="A90" s="4">
         <v>86</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D90" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
+      <c r="D90" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="5"/>
+      <c r="F90" s="8" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="6">
+      <c r="A91" s="4">
         <v>87</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D91" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
+      <c r="D91" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" s="5"/>
+      <c r="F91" s="8" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="6">
+      <c r="A92" s="4">
         <v>88</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D92" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
+      <c r="D92" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" s="5"/>
+      <c r="F92" s="8" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="6">
+      <c r="A93" s="4">
         <v>89</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D93" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
+      <c r="D93" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="5"/>
+      <c r="F93" s="8" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="6">
+      <c r="A94" s="4">
         <v>90</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D94" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
+      <c r="D94" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94" s="5"/>
+      <c r="F94" s="8" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="6">
+      <c r="A95" s="4">
         <v>91</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
+      <c r="D95" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" s="5"/>
+      <c r="F95" s="8" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="6">
+      <c r="A96" s="4">
         <v>92</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D96" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
+      <c r="D96" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96" s="5"/>
+      <c r="F96" s="8" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="6">
+      <c r="A97" s="4">
         <v>93</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D97" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
+      <c r="D97" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97" s="5"/>
+      <c r="F97" s="8" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="6">
+      <c r="A98" s="4">
         <v>94</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D98" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
+      <c r="D98" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" s="5"/>
+      <c r="F98" s="8" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="6">
+      <c r="A99" s="4">
         <v>95</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D99" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
+      <c r="D99" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" s="5"/>
+      <c r="F99" s="8" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="6">
+      <c r="A100" s="4">
         <v>96</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D100" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
+      <c r="D100" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="5"/>
+      <c r="F100" s="8" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="6">
+      <c r="A101" s="4">
         <v>97</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D101" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
+      <c r="D101" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="5"/>
+      <c r="F101" s="8" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="6">
+      <c r="A102" s="4">
         <v>98</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D102" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
+      <c r="D102" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" s="5"/>
+      <c r="F102" s="9" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="6">
-        <v>98</v>
-      </c>
-      <c r="B103" s="7" t="s">
+      <c r="A103" s="4">
+        <v>99</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D103" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
+      <c r="D103" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" s="5"/>
+      <c r="F103" s="8" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="6">
-        <v>98</v>
-      </c>
-      <c r="B104" s="7" t="s">
+      <c r="A104" s="4">
+        <v>100</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="D104" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="8" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="6">
-        <v>98</v>
-      </c>
-      <c r="B105" s="7" t="s">
+      <c r="A105" s="4">
+        <v>101</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D105" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
+      <c r="D105" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105" s="5"/>
+      <c r="F105" s="8" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="6">
-        <v>98</v>
-      </c>
-      <c r="B106" s="7" t="s">
+      <c r="A106" s="4">
+        <v>102</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D106" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
+      <c r="D106" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106" s="5"/>
+      <c r="F106" s="8" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="6">
-        <v>98</v>
-      </c>
-      <c r="B107" s="7" t="s">
+      <c r="A107" s="4">
+        <v>103</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="D107" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="8" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="6">
-        <v>98</v>
-      </c>
-      <c r="B108" s="7" t="s">
+      <c r="A108" s="4">
+        <v>104</v>
+      </c>
+      <c r="B108" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D108" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
+      <c r="D108" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108" s="5"/>
+      <c r="F108" s="8" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="6">
-        <v>98</v>
-      </c>
-      <c r="B109" s="7" t="s">
+      <c r="A109" s="4">
+        <v>105</v>
+      </c>
+      <c r="B109" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D109" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
+      <c r="D109" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E109" s="5"/>
+      <c r="F109" s="8" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="6">
-        <v>98</v>
-      </c>
-      <c r="B110" s="7" t="s">
+      <c r="A110" s="4">
+        <v>106</v>
+      </c>
+      <c r="B110" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D110" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
+      <c r="D110" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110" s="5"/>
+      <c r="F110" s="8" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="6">
-        <v>98</v>
-      </c>
-      <c r="B111" s="7" t="s">
+      <c r="A111" s="4">
+        <v>107</v>
+      </c>
+      <c r="B111" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D111" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
+      <c r="D111" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="5"/>
+      <c r="F111" s="8" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="6">
-        <v>98</v>
-      </c>
-      <c r="B112" s="7" t="s">
+      <c r="A112" s="4">
+        <v>108</v>
+      </c>
+      <c r="B112" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D112" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
+      <c r="D112" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="5"/>
+      <c r="F112" s="8" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="6">
-        <v>98</v>
-      </c>
-      <c r="B113" s="7" t="s">
+      <c r="A113" s="4">
+        <v>109</v>
+      </c>
+      <c r="B113" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C113" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D113" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
+      <c r="D113" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113" s="5"/>
+      <c r="F113" s="8" t="s">
+        <v>218</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="F1:F113"/>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F3"/>

--- a/HRMS/tblEmployeedatabelow62.xlsx
+++ b/HRMS/tblEmployeedatabelow62.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="252">
   <si>
     <t>Table Name -  tblEmployeedatabelow62</t>
   </si>
@@ -770,13 +770,16 @@
   </si>
   <si>
     <t xml:space="preserve">Get IFSC  (MstIFCSCode) in Numaric </t>
+  </si>
+  <si>
+    <t>Note : The Colored column  denoted as dependent Table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -796,6 +799,14 @@
       <color rgb="FF1F1F1F"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -839,7 +850,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -850,12 +861,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -863,6 +868,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1167,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="J97" sqref="J97"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114:F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,32 +1198,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1247,7 +1261,7 @@
       <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1255,7 +1269,7 @@
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1265,7 +1279,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>147</v>
       </c>
       <c r="J6" s="5"/>
@@ -1284,7 +1298,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>148</v>
       </c>
       <c r="J7" s="5"/>
@@ -1303,7 +1317,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1321,7 +1335,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1339,7 +1353,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1357,7 +1371,7 @@
         <v>18</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="7" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1375,7 +1389,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="7" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1393,7 +1407,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="7" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1411,7 +1425,7 @@
         <v>18</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>158</v>
       </c>
     </row>
@@ -1429,7 +1443,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="7" t="s">
         <v>161</v>
       </c>
     </row>
@@ -1447,7 +1461,7 @@
         <v>18</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1455,7 +1469,7 @@
       <c r="A17" s="4">
         <v>13</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1465,7 +1479,7 @@
         <v>18</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="6" t="s">
         <v>167</v>
       </c>
     </row>
@@ -1483,7 +1497,7 @@
         <v>18</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="6" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1501,7 +1515,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="6" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1509,7 +1523,7 @@
       <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -1519,7 +1533,7 @@
         <v>18</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="6" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1537,7 +1551,7 @@
         <v>18</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="6" t="s">
         <v>171</v>
       </c>
     </row>
@@ -1555,7 +1569,7 @@
         <v>14</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="6" t="s">
         <v>172</v>
       </c>
     </row>
@@ -1573,7 +1587,7 @@
         <v>18</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="7" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1591,7 +1605,7 @@
         <v>18</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="7" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1609,7 +1623,7 @@
         <v>18</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1627,7 +1641,7 @@
         <v>18</v>
       </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="7" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1645,7 +1659,7 @@
         <v>18</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="7" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1663,7 +1677,7 @@
         <v>18</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="6" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1681,7 +1695,7 @@
         <v>18</v>
       </c>
       <c r="E29" s="5"/>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="6" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1699,7 +1713,7 @@
         <v>18</v>
       </c>
       <c r="E30" s="5"/>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="7" t="s">
         <v>155</v>
       </c>
     </row>
@@ -1717,7 +1731,7 @@
         <v>18</v>
       </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="6" t="s">
         <v>176</v>
       </c>
     </row>
@@ -1735,7 +1749,7 @@
         <v>18</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="6" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1753,7 +1767,7 @@
         <v>18</v>
       </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="6" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1771,7 +1785,7 @@
         <v>18</v>
       </c>
       <c r="E34" s="5"/>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="6" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1789,7 +1803,7 @@
         <v>18</v>
       </c>
       <c r="E35" s="5"/>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="6" t="s">
         <v>178</v>
       </c>
     </row>
@@ -1807,7 +1821,7 @@
         <v>18</v>
       </c>
       <c r="E36" s="5"/>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="7" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1825,7 +1839,7 @@
         <v>18</v>
       </c>
       <c r="E37" s="5"/>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="7" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1843,7 +1857,7 @@
         <v>18</v>
       </c>
       <c r="E38" s="5"/>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="7" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1851,7 +1865,7 @@
       <c r="A39" s="4">
         <v>35</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -1861,7 +1875,7 @@
         <v>18</v>
       </c>
       <c r="E39" s="5"/>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="6" t="s">
         <v>179</v>
       </c>
     </row>
@@ -1879,7 +1893,7 @@
         <v>18</v>
       </c>
       <c r="E40" s="5"/>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="6" t="s">
         <v>180</v>
       </c>
     </row>
@@ -1887,7 +1901,7 @@
       <c r="A41" s="4">
         <v>37</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -1897,7 +1911,7 @@
         <v>18</v>
       </c>
       <c r="E41" s="5"/>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="6" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1915,7 +1929,7 @@
         <v>18</v>
       </c>
       <c r="E42" s="5"/>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="6" t="s">
         <v>182</v>
       </c>
     </row>
@@ -1933,7 +1947,7 @@
         <v>14</v>
       </c>
       <c r="E43" s="5"/>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="6" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1941,7 +1955,7 @@
       <c r="A44" s="4">
         <v>40</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -1951,7 +1965,7 @@
         <v>18</v>
       </c>
       <c r="E44" s="5"/>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="6" t="s">
         <v>184</v>
       </c>
     </row>
@@ -1969,7 +1983,7 @@
         <v>18</v>
       </c>
       <c r="E45" s="5"/>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="6" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1977,7 +1991,7 @@
       <c r="A46" s="4">
         <v>42</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -1987,7 +2001,7 @@
         <v>14</v>
       </c>
       <c r="E46" s="5"/>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="6" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2005,7 +2019,7 @@
         <v>18</v>
       </c>
       <c r="E47" s="5"/>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="6" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2013,7 +2027,7 @@
       <c r="A48" s="4">
         <v>44</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="8" t="s">
         <v>75</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -2023,7 +2037,7 @@
         <v>18</v>
       </c>
       <c r="E48" s="5"/>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="6" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2041,7 +2055,7 @@
         <v>18</v>
       </c>
       <c r="E49" s="5"/>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="6" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2059,7 +2073,7 @@
         <v>18</v>
       </c>
       <c r="E50" s="5"/>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="7" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2077,7 +2091,7 @@
         <v>14</v>
       </c>
       <c r="E51" s="5"/>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2095,7 +2109,7 @@
         <v>14</v>
       </c>
       <c r="E52" s="5"/>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="6" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2113,7 +2127,7 @@
         <v>18</v>
       </c>
       <c r="E53" s="5"/>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="6" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2131,7 +2145,7 @@
         <v>14</v>
       </c>
       <c r="E54" s="5"/>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="6" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2149,7 +2163,7 @@
         <v>18</v>
       </c>
       <c r="E55" s="5"/>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="6" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2167,7 +2181,7 @@
         <v>18</v>
       </c>
       <c r="E56" s="5"/>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="6" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2185,7 +2199,7 @@
         <v>18</v>
       </c>
       <c r="E57" s="5"/>
-      <c r="F57" s="9" t="s">
+      <c r="F57" s="7" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2203,7 +2217,7 @@
         <v>18</v>
       </c>
       <c r="E58" s="5"/>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="6" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2211,7 +2225,7 @@
       <c r="A59" s="4">
         <v>55</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C59" s="5" t="s">
@@ -2221,7 +2235,7 @@
         <v>18</v>
       </c>
       <c r="E59" s="5"/>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="6" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2239,7 +2253,7 @@
         <v>18</v>
       </c>
       <c r="E60" s="5"/>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="6" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2247,7 +2261,7 @@
       <c r="A61" s="4">
         <v>57</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="8" t="s">
         <v>89</v>
       </c>
       <c r="C61" s="5" t="s">
@@ -2257,7 +2271,7 @@
         <v>18</v>
       </c>
       <c r="E61" s="5"/>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="6" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2275,7 +2289,7 @@
         <v>18</v>
       </c>
       <c r="E62" s="5"/>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="6" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2283,7 +2297,7 @@
       <c r="A63" s="4">
         <v>59</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="8" t="s">
         <v>91</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -2293,7 +2307,7 @@
         <v>18</v>
       </c>
       <c r="E63" s="5"/>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="6" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2311,7 +2325,7 @@
         <v>18</v>
       </c>
       <c r="E64" s="5"/>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="6" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2329,7 +2343,7 @@
         <v>18</v>
       </c>
       <c r="E65" s="5"/>
-      <c r="F65" s="9" t="s">
+      <c r="F65" s="7" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2347,7 +2361,7 @@
         <v>18</v>
       </c>
       <c r="E66" s="5"/>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="6" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2365,7 +2379,7 @@
         <v>18</v>
       </c>
       <c r="E67" s="5"/>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="6" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2383,7 +2397,7 @@
         <v>18</v>
       </c>
       <c r="E68" s="5"/>
-      <c r="F68" s="9" t="s">
+      <c r="F68" s="7" t="s">
         <v>207</v>
       </c>
     </row>
@@ -2401,7 +2415,7 @@
         <v>18</v>
       </c>
       <c r="E69" s="5"/>
-      <c r="F69" s="8" t="s">
+      <c r="F69" s="6" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2419,7 +2433,7 @@
         <v>18</v>
       </c>
       <c r="E70" s="5"/>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="6" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2437,7 +2451,7 @@
         <v>18</v>
       </c>
       <c r="E71" s="5"/>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="6" t="s">
         <v>210</v>
       </c>
     </row>
@@ -2455,7 +2469,7 @@
         <v>18</v>
       </c>
       <c r="E72" s="5"/>
-      <c r="F72" s="9" t="s">
+      <c r="F72" s="7" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2473,7 +2487,7 @@
         <v>18</v>
       </c>
       <c r="E73" s="5"/>
-      <c r="F73" s="8" t="s">
+      <c r="F73" s="6" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2491,7 +2505,7 @@
         <v>18</v>
       </c>
       <c r="E74" s="5"/>
-      <c r="F74" s="8" t="s">
+      <c r="F74" s="6" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2509,7 +2523,7 @@
         <v>14</v>
       </c>
       <c r="E75" s="5"/>
-      <c r="F75" s="9" t="s">
+      <c r="F75" s="7" t="s">
         <v>219</v>
       </c>
     </row>
@@ -2527,7 +2541,7 @@
         <v>18</v>
       </c>
       <c r="E76" s="5"/>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="6" t="s">
         <v>221</v>
       </c>
     </row>
@@ -2545,7 +2559,7 @@
         <v>14</v>
       </c>
       <c r="E77" s="5"/>
-      <c r="F77" s="9" t="s">
+      <c r="F77" s="7" t="s">
         <v>220</v>
       </c>
     </row>
@@ -2563,7 +2577,7 @@
         <v>14</v>
       </c>
       <c r="E78" s="5"/>
-      <c r="F78" s="9" t="s">
+      <c r="F78" s="7" t="s">
         <v>222</v>
       </c>
     </row>
@@ -2581,7 +2595,7 @@
         <v>18</v>
       </c>
       <c r="E79" s="5"/>
-      <c r="F79" s="8" t="s">
+      <c r="F79" s="6" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2599,7 +2613,7 @@
         <v>18</v>
       </c>
       <c r="E80" s="5"/>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="6" t="s">
         <v>224</v>
       </c>
     </row>
@@ -2617,7 +2631,7 @@
         <v>18</v>
       </c>
       <c r="E81" s="5"/>
-      <c r="F81" s="9" t="s">
+      <c r="F81" s="7" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2635,7 +2649,7 @@
         <v>18</v>
       </c>
       <c r="E82" s="5"/>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="6" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2653,7 +2667,7 @@
         <v>18</v>
       </c>
       <c r="E83" s="5"/>
-      <c r="F83" s="9" t="s">
+      <c r="F83" s="7" t="s">
         <v>227</v>
       </c>
     </row>
@@ -2671,7 +2685,7 @@
         <v>18</v>
       </c>
       <c r="E84" s="5"/>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -2689,7 +2703,7 @@
         <v>18</v>
       </c>
       <c r="E85" s="5"/>
-      <c r="F85" s="8" t="s">
+      <c r="F85" s="6" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2707,7 +2721,7 @@
         <v>18</v>
       </c>
       <c r="E86" s="5"/>
-      <c r="F86" s="8" t="s">
+      <c r="F86" s="6" t="s">
         <v>231</v>
       </c>
     </row>
@@ -2725,7 +2739,7 @@
         <v>18</v>
       </c>
       <c r="E87" s="5"/>
-      <c r="F87" s="8" t="s">
+      <c r="F87" s="6" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2743,7 +2757,7 @@
         <v>18</v>
       </c>
       <c r="E88" s="5"/>
-      <c r="F88" s="8" t="s">
+      <c r="F88" s="6" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2761,7 +2775,7 @@
         <v>18</v>
       </c>
       <c r="E89" s="5"/>
-      <c r="F89" s="8" t="s">
+      <c r="F89" s="6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -2779,7 +2793,7 @@
         <v>18</v>
       </c>
       <c r="E90" s="5"/>
-      <c r="F90" s="8" t="s">
+      <c r="F90" s="6" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2797,7 +2811,7 @@
         <v>18</v>
       </c>
       <c r="E91" s="5"/>
-      <c r="F91" s="8" t="s">
+      <c r="F91" s="6" t="s">
         <v>237</v>
       </c>
     </row>
@@ -2815,7 +2829,7 @@
         <v>18</v>
       </c>
       <c r="E92" s="5"/>
-      <c r="F92" s="8" t="s">
+      <c r="F92" s="6" t="s">
         <v>238</v>
       </c>
     </row>
@@ -2823,7 +2837,7 @@
       <c r="A93" s="4">
         <v>89</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="8" t="s">
         <v>123</v>
       </c>
       <c r="C93" s="5" t="s">
@@ -2833,7 +2847,7 @@
         <v>18</v>
       </c>
       <c r="E93" s="5"/>
-      <c r="F93" s="8" t="s">
+      <c r="F93" s="6" t="s">
         <v>239</v>
       </c>
     </row>
@@ -2851,7 +2865,7 @@
         <v>18</v>
       </c>
       <c r="E94" s="5"/>
-      <c r="F94" s="8" t="s">
+      <c r="F94" s="6" t="s">
         <v>240</v>
       </c>
     </row>
@@ -2859,7 +2873,7 @@
       <c r="A95" s="4">
         <v>91</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="8" t="s">
         <v>125</v>
       </c>
       <c r="C95" s="5" t="s">
@@ -2869,7 +2883,7 @@
         <v>18</v>
       </c>
       <c r="E95" s="5"/>
-      <c r="F95" s="8" t="s">
+      <c r="F95" s="6" t="s">
         <v>241</v>
       </c>
     </row>
@@ -2887,7 +2901,7 @@
         <v>18</v>
       </c>
       <c r="E96" s="5"/>
-      <c r="F96" s="8" t="s">
+      <c r="F96" s="6" t="s">
         <v>242</v>
       </c>
     </row>
@@ -2895,7 +2909,7 @@
       <c r="A97" s="4">
         <v>93</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="8" t="s">
         <v>127</v>
       </c>
       <c r="C97" s="5" t="s">
@@ -2905,7 +2919,7 @@
         <v>18</v>
       </c>
       <c r="E97" s="5"/>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="6" t="s">
         <v>243</v>
       </c>
     </row>
@@ -2923,7 +2937,7 @@
         <v>18</v>
       </c>
       <c r="E98" s="5"/>
-      <c r="F98" s="8" t="s">
+      <c r="F98" s="6" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2941,7 +2955,7 @@
         <v>18</v>
       </c>
       <c r="E99" s="5"/>
-      <c r="F99" s="8" t="s">
+      <c r="F99" s="6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2959,7 +2973,7 @@
         <v>18</v>
       </c>
       <c r="E100" s="5"/>
-      <c r="F100" s="8" t="s">
+      <c r="F100" s="6" t="s">
         <v>245</v>
       </c>
     </row>
@@ -2977,7 +2991,7 @@
         <v>18</v>
       </c>
       <c r="E101" s="5"/>
-      <c r="F101" s="8" t="s">
+      <c r="F101" s="6" t="s">
         <v>246</v>
       </c>
     </row>
@@ -2995,7 +3009,7 @@
         <v>18</v>
       </c>
       <c r="E102" s="5"/>
-      <c r="F102" s="9" t="s">
+      <c r="F102" s="7" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3013,7 +3027,7 @@
         <v>18</v>
       </c>
       <c r="E103" s="5"/>
-      <c r="F103" s="8" t="s">
+      <c r="F103" s="6" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3031,7 +3045,7 @@
         <v>14</v>
       </c>
       <c r="E104" s="5"/>
-      <c r="F104" s="8" t="s">
+      <c r="F104" s="6" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3049,7 +3063,7 @@
         <v>18</v>
       </c>
       <c r="E105" s="5"/>
-      <c r="F105" s="8" t="s">
+      <c r="F105" s="6" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3067,7 +3081,7 @@
         <v>18</v>
       </c>
       <c r="E106" s="5"/>
-      <c r="F106" s="8" t="s">
+      <c r="F106" s="6" t="s">
         <v>248</v>
       </c>
     </row>
@@ -3085,7 +3099,7 @@
         <v>14</v>
       </c>
       <c r="E107" s="5"/>
-      <c r="F107" s="8" t="s">
+      <c r="F107" s="6" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3103,7 +3117,7 @@
         <v>18</v>
       </c>
       <c r="E108" s="5"/>
-      <c r="F108" s="8" t="s">
+      <c r="F108" s="6" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3111,7 +3125,7 @@
       <c r="A109" s="4">
         <v>105</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="8" t="s">
         <v>139</v>
       </c>
       <c r="C109" s="5" t="s">
@@ -3121,7 +3135,7 @@
         <v>18</v>
       </c>
       <c r="E109" s="5"/>
-      <c r="F109" s="8" t="s">
+      <c r="F109" s="6" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3139,7 +3153,7 @@
         <v>18</v>
       </c>
       <c r="E110" s="5"/>
-      <c r="F110" s="8" t="s">
+      <c r="F110" s="6" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3147,7 +3161,7 @@
       <c r="A111" s="4">
         <v>107</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C111" s="5" t="s">
@@ -3157,7 +3171,7 @@
         <v>18</v>
       </c>
       <c r="E111" s="5"/>
-      <c r="F111" s="8" t="s">
+      <c r="F111" s="6" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3175,7 +3189,7 @@
         <v>18</v>
       </c>
       <c r="E112" s="5"/>
-      <c r="F112" s="8" t="s">
+      <c r="F112" s="6" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3193,15 +3207,26 @@
         <v>18</v>
       </c>
       <c r="E113" s="5"/>
-      <c r="F113" s="8" t="s">
+      <c r="F113" s="6" t="s">
         <v>218</v>
       </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="F1:F113"/>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F3"/>
+    <mergeCell ref="A114:F114"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HRMS/tblEmployeedatabelow62.xlsx
+++ b/HRMS/tblEmployeedatabelow62.xlsx
@@ -22,9 +22,6 @@
     <t>Table Name -  tblEmployeedatabelow62</t>
   </si>
   <si>
-    <t xml:space="preserve">Defination : </t>
-  </si>
-  <si>
     <t>S.No.</t>
   </si>
   <si>
@@ -773,6 +770,9 @@
   </si>
   <si>
     <t>Note : The Colored column  denoted as dependent Table</t>
+  </si>
+  <si>
+    <t>Defination : इस तालिका में कर्मचारी डेटा का विवरण  है।</t>
   </si>
 </sst>
 </file>
@@ -1183,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114:F114"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1227,22 +1227,22 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1250,19 +1250,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1270,17 +1270,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J6" s="5"/>
     </row>
@@ -1289,17 +1289,17 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J7" s="5"/>
     </row>
@@ -1308,17 +1308,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1326,17 +1326,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1344,17 +1344,17 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1362,17 +1362,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1380,17 +1380,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1398,17 +1398,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1416,17 +1416,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1434,17 +1434,17 @@
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="D15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1452,17 +1452,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="D16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1470,17 +1470,17 @@
         <v>13</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1488,17 +1488,17 @@
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="D18" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1506,17 +1506,17 @@
         <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="D19" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1524,17 +1524,17 @@
         <v>16</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1542,17 +1542,17 @@
         <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1560,17 +1560,17 @@
         <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1578,17 +1578,17 @@
         <v>19</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1596,17 +1596,17 @@
         <v>20</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="D24" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1614,17 +1614,17 @@
         <v>21</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1632,17 +1632,17 @@
         <v>22</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1650,17 +1650,17 @@
         <v>23</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1668,17 +1668,17 @@
         <v>24</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="D28" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1686,17 +1686,17 @@
         <v>25</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="D29" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1704,17 +1704,17 @@
         <v>26</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1722,17 +1722,17 @@
         <v>27</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1740,17 +1740,17 @@
         <v>28</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="D32" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1758,17 +1758,17 @@
         <v>29</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="D33" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1776,17 +1776,17 @@
         <v>30</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="D34" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1794,17 +1794,17 @@
         <v>31</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1812,17 +1812,17 @@
         <v>32</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1830,17 +1830,17 @@
         <v>33</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="D37" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1848,17 +1848,17 @@
         <v>34</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1866,17 +1866,17 @@
         <v>35</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1884,17 +1884,17 @@
         <v>36</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1902,17 +1902,17 @@
         <v>37</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1920,17 +1920,17 @@
         <v>38</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1938,17 +1938,17 @@
         <v>39</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="D43" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1956,17 +1956,17 @@
         <v>40</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1974,17 +1974,17 @@
         <v>41</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1992,17 +1992,17 @@
         <v>42</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2010,17 +2010,17 @@
         <v>43</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2028,17 +2028,17 @@
         <v>44</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2046,17 +2046,17 @@
         <v>45</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2064,17 +2064,17 @@
         <v>46</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2082,17 +2082,17 @@
         <v>47</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2100,17 +2100,17 @@
         <v>48</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2118,17 +2118,17 @@
         <v>49</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2136,17 +2136,17 @@
         <v>50</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2154,17 +2154,17 @@
         <v>51</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2172,17 +2172,17 @@
         <v>52</v>
       </c>
       <c r="B56" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="D56" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2190,17 +2190,17 @@
         <v>53</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2208,17 +2208,17 @@
         <v>54</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2226,17 +2226,17 @@
         <v>55</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2244,17 +2244,17 @@
         <v>56</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2262,17 +2262,17 @@
         <v>57</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2280,17 +2280,17 @@
         <v>58</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2298,17 +2298,17 @@
         <v>59</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2316,17 +2316,17 @@
         <v>60</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2334,17 +2334,17 @@
         <v>61</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2352,17 +2352,17 @@
         <v>62</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2370,17 +2370,17 @@
         <v>63</v>
       </c>
       <c r="B67" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="D67" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2388,17 +2388,17 @@
         <v>64</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2406,17 +2406,17 @@
         <v>65</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2424,17 +2424,17 @@
         <v>66</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2442,17 +2442,17 @@
         <v>67</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2460,17 +2460,17 @@
         <v>68</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2478,17 +2478,17 @@
         <v>69</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2496,17 +2496,17 @@
         <v>70</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2514,17 +2514,17 @@
         <v>71</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2532,17 +2532,17 @@
         <v>72</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2550,17 +2550,17 @@
         <v>73</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2568,17 +2568,17 @@
         <v>74</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2586,17 +2586,17 @@
         <v>75</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2604,17 +2604,17 @@
         <v>76</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2622,17 +2622,17 @@
         <v>77</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2640,17 +2640,17 @@
         <v>78</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2658,17 +2658,17 @@
         <v>79</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2676,17 +2676,17 @@
         <v>80</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2694,17 +2694,17 @@
         <v>81</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2712,17 +2712,17 @@
         <v>82</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2730,17 +2730,17 @@
         <v>83</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2748,17 +2748,17 @@
         <v>84</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2766,17 +2766,17 @@
         <v>85</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2784,17 +2784,17 @@
         <v>86</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2802,17 +2802,17 @@
         <v>87</v>
       </c>
       <c r="B91" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="D91" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2820,17 +2820,17 @@
         <v>88</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2838,17 +2838,17 @@
         <v>89</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2856,17 +2856,17 @@
         <v>90</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2874,17 +2874,17 @@
         <v>91</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2892,17 +2892,17 @@
         <v>92</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2910,17 +2910,17 @@
         <v>93</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2928,17 +2928,17 @@
         <v>94</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2946,17 +2946,17 @@
         <v>95</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -2964,17 +2964,17 @@
         <v>96</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -2982,17 +2982,17 @@
         <v>97</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3000,17 +3000,17 @@
         <v>98</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3018,17 +3018,17 @@
         <v>99</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3036,17 +3036,17 @@
         <v>100</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3054,17 +3054,17 @@
         <v>101</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3072,17 +3072,17 @@
         <v>102</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3090,17 +3090,17 @@
         <v>103</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3108,17 +3108,17 @@
         <v>104</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3126,17 +3126,17 @@
         <v>105</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3144,17 +3144,17 @@
         <v>106</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3162,17 +3162,17 @@
         <v>107</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3180,17 +3180,17 @@
         <v>108</v>
       </c>
       <c r="B112" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C112" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C112" s="5" t="s">
-        <v>143</v>
-      </c>
       <c r="D112" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3198,22 +3198,22 @@
         <v>109</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
